--- a/Code/Results/Cases/Case_3_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.83256429961238</v>
+        <v>12.98179114390959</v>
       </c>
       <c r="C2">
-        <v>7.861552293000614</v>
+        <v>11.04039597825339</v>
       </c>
       <c r="D2">
-        <v>6.30820040709712</v>
+        <v>9.617039508785602</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.09809454242997</v>
+        <v>34.34488192419382</v>
       </c>
       <c r="G2">
-        <v>24.46354138634082</v>
+        <v>36.14186392745584</v>
       </c>
       <c r="H2">
-        <v>9.747140807148968</v>
+        <v>16.28337400582205</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.474801509903245</v>
+        <v>11.07483622179994</v>
       </c>
       <c r="K2">
-        <v>10.33491023540558</v>
+        <v>8.967823268953866</v>
       </c>
       <c r="L2">
-        <v>6.78575375088429</v>
+        <v>11.35246147243543</v>
       </c>
       <c r="M2">
-        <v>10.01961090093876</v>
+        <v>15.28146341242424</v>
       </c>
       <c r="N2">
-        <v>13.40919722363564</v>
+        <v>20.66716252841415</v>
       </c>
       <c r="O2">
-        <v>16.01790658664248</v>
+        <v>25.73884412223041</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.06217328053211</v>
+        <v>12.79266312756235</v>
       </c>
       <c r="C3">
-        <v>7.883768377076988</v>
+        <v>11.05147512369043</v>
       </c>
       <c r="D3">
-        <v>6.158392218673434</v>
+        <v>9.610161150389747</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.02414541726963</v>
+        <v>34.42553427541914</v>
       </c>
       <c r="G3">
-        <v>24.36348538445281</v>
+        <v>36.24062030855499</v>
       </c>
       <c r="H3">
-        <v>9.814072847216103</v>
+        <v>16.32702328238774</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.524676703179176</v>
+        <v>11.09548809078936</v>
       </c>
       <c r="K3">
-        <v>9.76539894552652</v>
+        <v>8.819050637789925</v>
       </c>
       <c r="L3">
-        <v>6.70921736638147</v>
+        <v>11.35914197096927</v>
       </c>
       <c r="M3">
-        <v>9.724354376918889</v>
+        <v>15.25573976202018</v>
       </c>
       <c r="N3">
-        <v>13.58399098084092</v>
+        <v>20.72181877517721</v>
       </c>
       <c r="O3">
-        <v>16.07988335646689</v>
+        <v>25.8135559404136</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56597262746981</v>
+        <v>12.67720227071839</v>
       </c>
       <c r="C4">
-        <v>7.898597112898773</v>
+        <v>11.05884087912727</v>
       </c>
       <c r="D4">
-        <v>6.066887460418443</v>
+        <v>9.607245765369772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.99302759694464</v>
+        <v>34.48113570190502</v>
       </c>
       <c r="G4">
-        <v>24.32231118169051</v>
+        <v>36.30922705170631</v>
       </c>
       <c r="H4">
-        <v>9.859533106349602</v>
+        <v>16.35581503790987</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.55659047156759</v>
+        <v>11.10889606137686</v>
       </c>
       <c r="K4">
-        <v>9.39758914290811</v>
+        <v>8.727584534457685</v>
       </c>
       <c r="L4">
-        <v>6.663975152126331</v>
+        <v>11.36442986316741</v>
       </c>
       <c r="M4">
-        <v>9.541490502014897</v>
+        <v>15.24175831824633</v>
       </c>
       <c r="N4">
-        <v>13.69403964745918</v>
+        <v>20.75699451078091</v>
       </c>
       <c r="O4">
-        <v>16.12769901476752</v>
+        <v>25.86349063037778</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.35806836826212</v>
+        <v>12.63037434821056</v>
       </c>
       <c r="C5">
-        <v>7.904936850599671</v>
+        <v>11.06198448484832</v>
       </c>
       <c r="D5">
-        <v>6.02977023019515</v>
+        <v>9.606388383132023</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.98385894687493</v>
+        <v>34.5053220138001</v>
       </c>
       <c r="G5">
-        <v>24.3104855426598</v>
+        <v>36.33918545745307</v>
       </c>
       <c r="H5">
-        <v>9.879130054894626</v>
+        <v>16.36804907294456</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.5699212108271</v>
+        <v>11.11454336018667</v>
       </c>
       <c r="K5">
-        <v>9.243205885589909</v>
+        <v>8.690326724727319</v>
       </c>
       <c r="L5">
-        <v>6.645991831702555</v>
+        <v>11.36688376579368</v>
       </c>
       <c r="M5">
-        <v>9.466684583835203</v>
+        <v>15.23652093547063</v>
       </c>
       <c r="N5">
-        <v>13.73958437946054</v>
+        <v>20.77173653728616</v>
       </c>
       <c r="O5">
-        <v>16.14956377846292</v>
+        <v>25.88486060776303</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.32320628685698</v>
+        <v>12.62261373822245</v>
       </c>
       <c r="C6">
-        <v>7.906007440438836</v>
+        <v>11.0625150664414</v>
       </c>
       <c r="D6">
-        <v>6.023618838968741</v>
+        <v>9.606266035350398</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.98254617777369</v>
+        <v>34.50943041247418</v>
       </c>
       <c r="G6">
-        <v>24.30881675996142</v>
+        <v>36.3442807511672</v>
       </c>
       <c r="H6">
-        <v>9.882448099378351</v>
+        <v>16.37011080957014</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.572154472077972</v>
+        <v>11.11549218317245</v>
       </c>
       <c r="K6">
-        <v>9.217301092176822</v>
+        <v>8.684142357932467</v>
       </c>
       <c r="L6">
-        <v>6.64303344791697</v>
+        <v>11.36730931863731</v>
       </c>
       <c r="M6">
-        <v>9.45424906185856</v>
+        <v>15.23567918515969</v>
       </c>
       <c r="N6">
-        <v>13.74718966335474</v>
+        <v>20.77420909250529</v>
       </c>
       <c r="O6">
-        <v>16.15333594806671</v>
+        <v>25.88847075095545</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56319163563166</v>
+        <v>12.67656975449464</v>
       </c>
       <c r="C7">
-        <v>7.89868141297147</v>
+        <v>11.05888269940289</v>
       </c>
       <c r="D7">
-        <v>6.066386120386274</v>
+        <v>9.607232861346224</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.99288983468014</v>
+        <v>34.48145570009006</v>
       </c>
       <c r="G7">
-        <v>24.32213183500362</v>
+        <v>36.30962298572777</v>
       </c>
       <c r="H7">
-        <v>9.859793092271769</v>
+        <v>16.35597800050096</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.556768934544256</v>
+        <v>11.10897147944526</v>
       </c>
       <c r="K7">
-        <v>9.395525196108826</v>
+        <v>8.727081940064117</v>
       </c>
       <c r="L7">
-        <v>6.663730771269813</v>
+        <v>11.36446174550425</v>
       </c>
       <c r="M7">
-        <v>9.540482658545614</v>
+        <v>15.24168581639747</v>
       </c>
       <c r="N7">
-        <v>13.69465103132712</v>
+        <v>20.75719167493461</v>
       </c>
       <c r="O7">
-        <v>16.12798435448893</v>
+        <v>25.86377469872667</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57181215915088</v>
+        <v>12.91647557424937</v>
       </c>
       <c r="C8">
-        <v>7.868964712233974</v>
+        <v>11.04409943341611</v>
       </c>
       <c r="D8">
-        <v>6.256477806666316</v>
+        <v>9.614397483666574</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.06958459077908</v>
+        <v>34.3714284438545</v>
       </c>
       <c r="G8">
-        <v>24.42475464994155</v>
+        <v>36.17425895037229</v>
       </c>
       <c r="H8">
-        <v>9.769297424878063</v>
+        <v>16.29801137785948</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.491731405038677</v>
+        <v>11.08180624845197</v>
       </c>
       <c r="K8">
-        <v>10.14233671543449</v>
+        <v>8.916578170798186</v>
       </c>
       <c r="L8">
-        <v>6.759008445860499</v>
+        <v>11.35451923965904</v>
       </c>
       <c r="M8">
-        <v>9.918196508058994</v>
+        <v>15.27222025333965</v>
       </c>
       <c r="N8">
-        <v>13.46890914774483</v>
+        <v>20.68567316230503</v>
       </c>
       <c r="O8">
-        <v>16.03720455988503</v>
+        <v>25.76376179441028</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.36159361196147</v>
+        <v>13.38974654987722</v>
       </c>
       <c r="C9">
-        <v>7.820203078797004</v>
+        <v>11.01955988397999</v>
       </c>
       <c r="D9">
-        <v>6.630857537446749</v>
+        <v>9.63874279919024</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.33669911888143</v>
+        <v>34.2039397836633</v>
       </c>
       <c r="G9">
-        <v>24.79259485084323</v>
+        <v>35.97219407228545</v>
       </c>
       <c r="H9">
-        <v>9.627675208563298</v>
+        <v>16.20011244703339</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.374376764917984</v>
+        <v>11.03428737196406</v>
       </c>
       <c r="K9">
-        <v>11.46107693759012</v>
+        <v>9.285282767750171</v>
       </c>
       <c r="L9">
-        <v>6.959146468464819</v>
+        <v>11.34439650468154</v>
       </c>
       <c r="M9">
-        <v>10.64197822150728</v>
+        <v>15.34628623807266</v>
       </c>
       <c r="N9">
-        <v>13.04718954607437</v>
+        <v>20.55820018406052</v>
       </c>
       <c r="O9">
-        <v>15.94006148581055</v>
+        <v>25.59986418501351</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.64321829348294</v>
+        <v>13.73593347779361</v>
       </c>
       <c r="C10">
-        <v>7.790304782113489</v>
+        <v>11.0042198700053</v>
       </c>
       <c r="D10">
-        <v>6.904126697884482</v>
+        <v>9.662787748115317</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.60831670833883</v>
+        <v>34.11034653672864</v>
       </c>
       <c r="G10">
-        <v>25.17163535513276</v>
+        <v>35.86256024095117</v>
       </c>
       <c r="H10">
-        <v>9.547238861759645</v>
+        <v>16.13776949500539</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.294291780181781</v>
+        <v>11.0028519480793</v>
       </c>
       <c r="K10">
-        <v>12.33938458791177</v>
+        <v>9.551866078769333</v>
       </c>
       <c r="L10">
-        <v>7.113460739097262</v>
+        <v>11.342624346399</v>
       </c>
       <c r="M10">
-        <v>11.15806677461618</v>
+        <v>15.40907450819791</v>
       </c>
       <c r="N10">
-        <v>12.74916645817978</v>
+        <v>20.47225928020675</v>
       </c>
       <c r="O10">
-        <v>15.92275511631138</v>
+        <v>25.49909787081461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.19898036655163</v>
+        <v>13.89242672755144</v>
       </c>
       <c r="C11">
-        <v>7.778020560492036</v>
+        <v>10.99782018210172</v>
       </c>
       <c r="D11">
-        <v>7.027522852646658</v>
+        <v>9.67503559879596</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.74903531977817</v>
+        <v>34.07416885200053</v>
       </c>
       <c r="G11">
-        <v>25.3690067462171</v>
+        <v>35.82114734319421</v>
       </c>
       <c r="H11">
-        <v>9.51618421550454</v>
+        <v>16.11148218882542</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.259176914593431</v>
+        <v>10.98929975488158</v>
       </c>
       <c r="K11">
-        <v>12.71911573892905</v>
+        <v>9.671697399622021</v>
       </c>
       <c r="L11">
-        <v>7.185057824095217</v>
+        <v>11.34303672529786</v>
       </c>
       <c r="M11">
-        <v>11.38847439706554</v>
+        <v>15.43939227788265</v>
       </c>
       <c r="N11">
-        <v>12.61593188375225</v>
+        <v>20.43482163361909</v>
       </c>
       <c r="O11">
-        <v>15.92766044999284</v>
+        <v>25.45752347306199</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40487594727546</v>
+        <v>13.95149105902379</v>
       </c>
       <c r="C12">
-        <v>7.773560914619017</v>
+        <v>10.99547957819666</v>
       </c>
       <c r="D12">
-        <v>7.074077829843689</v>
+        <v>9.679859236283498</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.80484513584546</v>
+        <v>34.06138929834735</v>
       </c>
       <c r="G12">
-        <v>25.44742392771048</v>
+        <v>35.80668392144935</v>
       </c>
       <c r="H12">
-        <v>9.505256876859434</v>
+        <v>16.10182543435472</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.246068146186276</v>
+        <v>10.98427496806794</v>
       </c>
       <c r="K12">
-        <v>12.86005560269805</v>
+        <v>9.716827265363218</v>
       </c>
       <c r="L12">
-        <v>7.21235530401282</v>
+        <v>11.34336703550958</v>
       </c>
       <c r="M12">
-        <v>11.47502633537554</v>
+        <v>15.45111934637755</v>
       </c>
       <c r="N12">
-        <v>12.56579678863369</v>
+        <v>20.42088212588336</v>
       </c>
       <c r="O12">
-        <v>15.93144155622854</v>
+        <v>25.44239360628509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.36073477627374</v>
+        <v>13.93878006715594</v>
       </c>
       <c r="C13">
-        <v>7.774512788209195</v>
+        <v>10.99597999172777</v>
       </c>
       <c r="D13">
-        <v>7.064059667568491</v>
+        <v>9.678812167492845</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.79271247003153</v>
+        <v>34.06410068103439</v>
       </c>
       <c r="G13">
-        <v>25.43037053884892</v>
+        <v>35.80974464354011</v>
       </c>
       <c r="H13">
-        <v>9.507572657990819</v>
+        <v>16.10389195609178</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.248882983523561</v>
+        <v>10.98535238758312</v>
       </c>
       <c r="K13">
-        <v>12.82982874744714</v>
+        <v>9.707119384183185</v>
       </c>
       <c r="L13">
-        <v>7.206468316880662</v>
+        <v>11.34328816951551</v>
       </c>
       <c r="M13">
-        <v>11.45641793285393</v>
+        <v>15.44858285205306</v>
       </c>
       <c r="N13">
-        <v>12.57658043674237</v>
+        <v>20.42387370939979</v>
       </c>
       <c r="O13">
-        <v>15.93054030199766</v>
+        <v>25.44562480746517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.21601066220911</v>
+        <v>13.89729022175265</v>
       </c>
       <c r="C14">
-        <v>7.777649795736206</v>
+        <v>10.99762596155169</v>
       </c>
       <c r="D14">
-        <v>7.031356637137148</v>
+        <v>9.675428737717574</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.75357596970522</v>
+        <v>34.07309902957614</v>
       </c>
       <c r="G14">
-        <v>25.37538400838241</v>
+        <v>35.8199329922158</v>
       </c>
       <c r="H14">
-        <v>9.51526832056957</v>
+        <v>16.11068175814034</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.258094675369416</v>
+        <v>10.98888421788777</v>
       </c>
       <c r="K14">
-        <v>12.73076820284453</v>
+        <v>9.675415450795933</v>
       </c>
       <c r="L14">
-        <v>7.187299982602584</v>
+        <v>11.34306041619913</v>
       </c>
       <c r="M14">
-        <v>11.3956094521199</v>
+        <v>15.44035216803207</v>
       </c>
       <c r="N14">
-        <v>12.61180097451601</v>
+        <v>20.43367007144948</v>
       </c>
       <c r="O14">
-        <v>15.92793247846802</v>
+        <v>25.45626643425868</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.12677040933646</v>
+        <v>13.87184936290158</v>
       </c>
       <c r="C15">
-        <v>7.779596409118203</v>
+        <v>10.99864493989396</v>
       </c>
       <c r="D15">
-        <v>7.011301471445089</v>
+        <v>9.673380383143611</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.72993381820881</v>
+        <v>34.07873060720532</v>
       </c>
       <c r="G15">
-        <v>25.34218449344428</v>
+        <v>35.82633242458713</v>
       </c>
       <c r="H15">
-        <v>9.520091643402646</v>
+        <v>16.11487946286039</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.263761624731728</v>
+        <v>10.99106150568774</v>
       </c>
       <c r="K15">
-        <v>12.66971872035005</v>
+        <v>9.65596244745239</v>
       </c>
       <c r="L15">
-        <v>7.175582476141115</v>
+        <v>11.34294355761172</v>
       </c>
       <c r="M15">
-        <v>11.35826957930212</v>
+        <v>15.4353425415601</v>
       </c>
       <c r="N15">
-        <v>12.63341542202338</v>
+        <v>20.43970150214954</v>
       </c>
       <c r="O15">
-        <v>15.92658817707568</v>
+        <v>25.46286463316098</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.60625767131063</v>
+        <v>13.72568171092949</v>
       </c>
       <c r="C16">
-        <v>7.791134313888614</v>
+        <v>11.00464971450659</v>
       </c>
       <c r="D16">
-        <v>6.896040482155487</v>
+        <v>9.662013449905839</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.59947054534921</v>
+        <v>34.112839595998</v>
       </c>
       <c r="G16">
-        <v>25.15924655916901</v>
+        <v>35.86543710649733</v>
       </c>
       <c r="H16">
-        <v>9.549382820583215</v>
+        <v>16.13952910917701</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.296613034161592</v>
+        <v>11.00375263038026</v>
       </c>
       <c r="K16">
-        <v>12.31416881590187</v>
+        <v>9.544002340266076</v>
       </c>
       <c r="L16">
-        <v>7.10880848264653</v>
+        <v>11.34262182605432</v>
       </c>
       <c r="M16">
-        <v>11.14291503654455</v>
+        <v>15.40712798045289</v>
       </c>
       <c r="N16">
-        <v>12.75791915355845</v>
+        <v>20.4747391817487</v>
       </c>
       <c r="O16">
-        <v>15.92269901933949</v>
+        <v>25.50190068978728</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.27877522061533</v>
+        <v>13.63572023532034</v>
       </c>
       <c r="C17">
-        <v>7.798551603208731</v>
+        <v>11.00848136378186</v>
       </c>
       <c r="D17">
-        <v>6.825067040328587</v>
+        <v>9.655373778758481</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.52387137269034</v>
+        <v>34.13540324817342</v>
       </c>
       <c r="G17">
-        <v>25.05347645165504</v>
+        <v>35.89159508121774</v>
       </c>
       <c r="H17">
-        <v>9.568795235508739</v>
+        <v>16.15518148764261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.317102822959446</v>
+        <v>11.01172949052712</v>
       </c>
       <c r="K17">
-        <v>12.0909685112654</v>
+        <v>9.474920332347883</v>
       </c>
       <c r="L17">
-        <v>7.068191676988478</v>
+        <v>11.34273580454645</v>
       </c>
       <c r="M17">
-        <v>11.00963129741959</v>
+        <v>15.39026458950118</v>
       </c>
       <c r="N17">
-        <v>12.83488419955019</v>
+        <v>20.496657422033</v>
       </c>
       <c r="O17">
-        <v>15.92364704392531</v>
+        <v>25.52694048963465</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.08740243051549</v>
+        <v>13.58388681096914</v>
       </c>
       <c r="C18">
-        <v>7.802941585463338</v>
+        <v>11.01073970653884</v>
       </c>
       <c r="D18">
-        <v>6.784161072297265</v>
+        <v>9.651678259200976</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.48200080309995</v>
+        <v>34.14898351616824</v>
       </c>
       <c r="G18">
-        <v>24.99498347662628</v>
+        <v>35.90743665330486</v>
       </c>
       <c r="H18">
-        <v>9.580479564722499</v>
+        <v>16.16437944805825</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.329011936611249</v>
+        <v>11.01638799376321</v>
       </c>
       <c r="K18">
-        <v>11.96072444187907</v>
+        <v>9.435053085945517</v>
       </c>
       <c r="L18">
-        <v>7.044962570006866</v>
+        <v>11.34291612443835</v>
       </c>
       <c r="M18">
-        <v>10.93256300664763</v>
+        <v>15.38073078213495</v>
       </c>
       <c r="N18">
-        <v>12.87937362588675</v>
+        <v>20.50942026637602</v>
       </c>
       <c r="O18">
-        <v>15.92538987589082</v>
+        <v>25.54174412474835</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02208808610625</v>
+        <v>13.56632313153918</v>
       </c>
       <c r="C19">
-        <v>7.804449130680497</v>
+        <v>11.01151371100412</v>
       </c>
       <c r="D19">
-        <v>6.770297899802126</v>
+        <v>9.650448300892482</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.46809924607683</v>
+        <v>34.15368499318055</v>
       </c>
       <c r="G19">
-        <v>24.97557827768596</v>
+        <v>35.91293701154896</v>
       </c>
       <c r="H19">
-        <v>9.584523709084914</v>
+        <v>16.16752724450114</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.333065468580195</v>
+        <v>11.01797739115896</v>
       </c>
       <c r="K19">
-        <v>11.91630600142106</v>
+        <v>9.421533134148872</v>
       </c>
       <c r="L19">
-        <v>7.037120856400919</v>
+        <v>11.34299692009142</v>
       </c>
       <c r="M19">
-        <v>10.90640139863988</v>
+        <v>15.37753141409849</v>
       </c>
       <c r="N19">
-        <v>12.89447550762056</v>
+        <v>20.5137683789948</v>
       </c>
       <c r="O19">
-        <v>15.92618303319373</v>
+        <v>25.54682531631476</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.31394788486435</v>
+        <v>13.64530649656483</v>
       </c>
       <c r="C20">
-        <v>7.797749192428181</v>
+        <v>11.00806784249858</v>
       </c>
       <c r="D20">
-        <v>6.832631276410113</v>
+        <v>9.656067826153421</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.53175177162266</v>
+        <v>34.13293897683602</v>
       </c>
       <c r="G20">
-        <v>25.06449266068755</v>
+        <v>35.88872809958558</v>
       </c>
       <c r="H20">
-        <v>9.566674797532659</v>
+        <v>16.15349507323096</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.314908829848253</v>
+        <v>11.01087305454393</v>
       </c>
       <c r="K20">
-        <v>12.11492166931301</v>
+        <v>9.482288307012066</v>
       </c>
       <c r="L20">
-        <v>7.072501797054359</v>
+        <v>11.3427118014735</v>
       </c>
       <c r="M20">
-        <v>11.02386224264134</v>
+        <v>15.39204263312846</v>
       </c>
       <c r="N20">
-        <v>12.82666837814046</v>
+        <v>20.4943080444014</v>
       </c>
       <c r="O20">
-        <v>15.92342156049554</v>
+        <v>25.52423341480093</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.25864305662596</v>
+        <v>13.90948254273349</v>
       </c>
       <c r="C21">
-        <v>7.776723143358033</v>
+        <v>10.99714025563347</v>
       </c>
       <c r="D21">
-        <v>7.040967299454998</v>
+        <v>9.676417516918818</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.76500242787535</v>
+        <v>34.07043102433186</v>
       </c>
       <c r="G21">
-        <v>25.3914344331507</v>
+        <v>35.81690733541044</v>
       </c>
       <c r="H21">
-        <v>9.512985029505195</v>
+        <v>16.10867935289494</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.255383869087323</v>
+        <v>10.9878439294213</v>
       </c>
       <c r="K21">
-        <v>12.75994222197277</v>
+        <v>9.6847347010644</v>
       </c>
       <c r="L21">
-        <v>7.192925286111026</v>
+        <v>11.34312259526509</v>
       </c>
       <c r="M21">
-        <v>11.413489857149</v>
+        <v>15.44276308145141</v>
       </c>
       <c r="N21">
-        <v>12.60144736919034</v>
+        <v>20.43078620967307</v>
       </c>
       <c r="O21">
-        <v>15.92864556670765</v>
+        <v>25.45312408012134</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.84949944252726</v>
+        <v>14.08096922879327</v>
       </c>
       <c r="C22">
-        <v>7.764102660795897</v>
+        <v>10.99048100417003</v>
       </c>
       <c r="D22">
-        <v>7.17610511122297</v>
+        <v>9.6907979336219</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.93217155390926</v>
+        <v>34.03494168706306</v>
       </c>
       <c r="G22">
-        <v>25.62657560597187</v>
+        <v>35.77707281420899</v>
       </c>
       <c r="H22">
-        <v>9.482765510955836</v>
+        <v>16.08112460448516</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.217579105859971</v>
+        <v>10.97341733660683</v>
       </c>
       <c r="K22">
-        <v>13.16485406274345</v>
+        <v>9.81558408335294</v>
       </c>
       <c r="L22">
-        <v>7.272701391263084</v>
+        <v>11.34440562522727</v>
       </c>
       <c r="M22">
-        <v>11.66403583741656</v>
+        <v>15.47734501966581</v>
       </c>
       <c r="N22">
-        <v>12.45609657991301</v>
+        <v>20.39065382390213</v>
       </c>
       <c r="O22">
-        <v>15.94331189143814</v>
+        <v>25.4102257723413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.53656453531241</v>
+        <v>13.98956773669434</v>
       </c>
       <c r="C23">
-        <v>7.770734887841694</v>
+        <v>10.99399114228723</v>
       </c>
       <c r="D23">
-        <v>7.104085632221838</v>
+        <v>9.683024873965817</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.84158587561896</v>
+        <v>34.05339230975773</v>
       </c>
       <c r="G23">
-        <v>25.49908535559413</v>
+        <v>35.79768256635489</v>
       </c>
       <c r="H23">
-        <v>9.498436202021139</v>
+        <v>16.09567247556799</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.237655969733959</v>
+        <v>10.98106009678338</v>
       </c>
       <c r="K23">
-        <v>12.95026879257243</v>
+        <v>9.745893951242014</v>
       </c>
       <c r="L23">
-        <v>7.230030455025648</v>
+        <v>11.34362838436593</v>
       </c>
       <c r="M23">
-        <v>11.53071106430775</v>
+        <v>15.45875888918865</v>
       </c>
       <c r="N23">
-        <v>12.5335105328127</v>
+        <v>20.41194703476923</v>
       </c>
       <c r="O23">
-        <v>15.93442610531135</v>
+        <v>25.43279416927137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.29805597839501</v>
+        <v>13.64097289685179</v>
       </c>
       <c r="C24">
-        <v>7.798111571073719</v>
+        <v>11.00825462264389</v>
       </c>
       <c r="D24">
-        <v>6.829211801065374</v>
+        <v>9.655753668003353</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.52818408754614</v>
+        <v>34.13405117967102</v>
       </c>
       <c r="G24">
-        <v>25.059505026743</v>
+        <v>35.89002176086933</v>
       </c>
       <c r="H24">
-        <v>9.567631818518292</v>
+        <v>16.15425688066505</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.315900331452726</v>
+        <v>11.01126002339133</v>
       </c>
       <c r="K24">
-        <v>12.10409843645528</v>
+        <v>9.47895771312313</v>
       </c>
       <c r="L24">
-        <v>7.070552810448048</v>
+        <v>11.34272229562191</v>
       </c>
       <c r="M24">
-        <v>11.01742980261102</v>
+        <v>15.3912382770956</v>
       </c>
       <c r="N24">
-        <v>12.83038199836115</v>
+        <v>20.49536969409144</v>
       </c>
       <c r="O24">
-        <v>15.92351977719185</v>
+        <v>25.52545601270922</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.89803809943818</v>
+        <v>13.26175138733153</v>
       </c>
       <c r="C25">
-        <v>7.832363308635079</v>
+        <v>11.02572451079296</v>
       </c>
       <c r="D25">
-        <v>6.529700990348442</v>
+        <v>9.631066130911449</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.25148573477206</v>
+        <v>34.24407783131967</v>
       </c>
       <c r="G25">
-        <v>24.67446061577039</v>
+        <v>36.02005207212563</v>
       </c>
       <c r="H25">
-        <v>9.661974318790378</v>
+        <v>16.2249114244973</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.405041815253234</v>
+        <v>11.04652979820712</v>
       </c>
       <c r="K25">
-        <v>11.12014351455651</v>
+        <v>9.186115722159521</v>
       </c>
       <c r="L25">
-        <v>6.903664579984213</v>
+        <v>11.34613633139779</v>
       </c>
       <c r="M25">
-        <v>10.44857145347317</v>
+        <v>15.32475811942852</v>
       </c>
       <c r="N25">
-        <v>13.15912908164221</v>
+        <v>20.59132510775131</v>
       </c>
       <c r="O25">
-        <v>15.957195193092</v>
+        <v>25.64075229695733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.98179114390959</v>
+        <v>12.83256429961235</v>
       </c>
       <c r="C2">
-        <v>11.04039597825339</v>
+        <v>7.861552293000484</v>
       </c>
       <c r="D2">
-        <v>9.617039508785602</v>
+        <v>6.308200407097127</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.34488192419382</v>
+        <v>22.09809454242981</v>
       </c>
       <c r="G2">
-        <v>36.14186392745584</v>
+        <v>24.46354138634051</v>
       </c>
       <c r="H2">
-        <v>16.28337400582205</v>
+        <v>9.747140807148854</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.07483622179994</v>
+        <v>6.47480150990321</v>
       </c>
       <c r="K2">
-        <v>8.967823268953866</v>
+        <v>10.33491023540561</v>
       </c>
       <c r="L2">
-        <v>11.35246147243543</v>
+        <v>6.785753750884275</v>
       </c>
       <c r="M2">
-        <v>15.28146341242424</v>
+        <v>10.01961090093871</v>
       </c>
       <c r="N2">
-        <v>20.66716252841415</v>
+        <v>13.40919722363554</v>
       </c>
       <c r="O2">
-        <v>25.73884412223041</v>
+        <v>16.01790658664234</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79266312756235</v>
+        <v>12.06217328053211</v>
       </c>
       <c r="C3">
-        <v>11.05147512369043</v>
+        <v>7.883768377076986</v>
       </c>
       <c r="D3">
-        <v>9.610161150389747</v>
+        <v>6.158392218673471</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.42553427541914</v>
+        <v>22.02414541726957</v>
       </c>
       <c r="G3">
-        <v>36.24062030855499</v>
+        <v>24.36348538445272</v>
       </c>
       <c r="H3">
-        <v>16.32702328238774</v>
+        <v>9.814072847216101</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.09548809078936</v>
+        <v>6.524676703179147</v>
       </c>
       <c r="K3">
-        <v>8.819050637789925</v>
+        <v>9.76539894552656</v>
       </c>
       <c r="L3">
-        <v>11.35914197096927</v>
+        <v>6.709217366381388</v>
       </c>
       <c r="M3">
-        <v>15.25573976202018</v>
+        <v>9.72435437691885</v>
       </c>
       <c r="N3">
-        <v>20.72181877517721</v>
+        <v>13.58399098084092</v>
       </c>
       <c r="O3">
-        <v>25.8135559404136</v>
+        <v>16.07988335646689</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.67720227071839</v>
+        <v>11.56597262746982</v>
       </c>
       <c r="C4">
-        <v>11.05884087912727</v>
+        <v>7.898597112898778</v>
       </c>
       <c r="D4">
-        <v>9.607245765369772</v>
+        <v>6.066887460418357</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.48113570190502</v>
+        <v>21.99302759694477</v>
       </c>
       <c r="G4">
-        <v>36.30922705170631</v>
+        <v>24.32231118169065</v>
       </c>
       <c r="H4">
-        <v>16.35581503790987</v>
+        <v>9.859533106349721</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.10889606137686</v>
+        <v>6.556590471567588</v>
       </c>
       <c r="K4">
-        <v>8.727584534457685</v>
+        <v>9.397589142908094</v>
       </c>
       <c r="L4">
-        <v>11.36442986316741</v>
+        <v>6.663975152126317</v>
       </c>
       <c r="M4">
-        <v>15.24175831824633</v>
+        <v>9.541490502014909</v>
       </c>
       <c r="N4">
-        <v>20.75699451078091</v>
+        <v>13.69403964745928</v>
       </c>
       <c r="O4">
-        <v>25.86349063037778</v>
+        <v>16.12769901476768</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.63037434821056</v>
+        <v>11.35806836826215</v>
       </c>
       <c r="C5">
-        <v>11.06198448484832</v>
+        <v>7.90493685059954</v>
       </c>
       <c r="D5">
-        <v>9.606388383132023</v>
+        <v>6.029770230195217</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.5053220138001</v>
+        <v>21.98385894687511</v>
       </c>
       <c r="G5">
-        <v>36.33918545745307</v>
+        <v>24.31048554266007</v>
       </c>
       <c r="H5">
-        <v>16.36804907294456</v>
+        <v>9.879130054894693</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.11454336018667</v>
+        <v>6.569921210827004</v>
       </c>
       <c r="K5">
-        <v>8.690326724727319</v>
+        <v>9.243205885589843</v>
       </c>
       <c r="L5">
-        <v>11.36688376579368</v>
+        <v>6.645991831702472</v>
       </c>
       <c r="M5">
-        <v>15.23652093547063</v>
+        <v>9.466684583835224</v>
       </c>
       <c r="N5">
-        <v>20.77173653728616</v>
+        <v>13.73958437946057</v>
       </c>
       <c r="O5">
-        <v>25.88486060776303</v>
+        <v>16.14956377846303</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.62261373822245</v>
+        <v>11.32320628685697</v>
       </c>
       <c r="C6">
-        <v>11.0625150664414</v>
+        <v>7.90600744043897</v>
       </c>
       <c r="D6">
-        <v>9.606266035350398</v>
+        <v>6.023618838968811</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.50943041247418</v>
+        <v>21.98254617777351</v>
       </c>
       <c r="G6">
-        <v>36.3442807511672</v>
+        <v>24.30881675996097</v>
       </c>
       <c r="H6">
-        <v>16.37011080957014</v>
+        <v>9.882448099378291</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.11549218317245</v>
+        <v>6.572154472077905</v>
       </c>
       <c r="K6">
-        <v>8.684142357932467</v>
+        <v>9.217301092176914</v>
       </c>
       <c r="L6">
-        <v>11.36730931863731</v>
+        <v>6.643033447916935</v>
       </c>
       <c r="M6">
-        <v>15.23567918515969</v>
+        <v>9.454249061858556</v>
       </c>
       <c r="N6">
-        <v>20.77420909250529</v>
+        <v>13.74718966335464</v>
       </c>
       <c r="O6">
-        <v>25.88847075095545</v>
+        <v>16.15333594806645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67656975449464</v>
+        <v>11.56319163563162</v>
       </c>
       <c r="C7">
-        <v>11.05888269940289</v>
+        <v>7.898681412971201</v>
       </c>
       <c r="D7">
-        <v>9.607232861346224</v>
+        <v>6.066386120386256</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.48145570009006</v>
+        <v>21.99288983468006</v>
       </c>
       <c r="G7">
-        <v>36.30962298572777</v>
+        <v>24.32213183500348</v>
       </c>
       <c r="H7">
-        <v>16.35597800050096</v>
+        <v>9.859793092271767</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.10897147944526</v>
+        <v>6.55676893454419</v>
       </c>
       <c r="K7">
-        <v>8.727081940064117</v>
+        <v>9.395525196108867</v>
       </c>
       <c r="L7">
-        <v>11.36446174550425</v>
+        <v>6.663730771269832</v>
       </c>
       <c r="M7">
-        <v>15.24168581639747</v>
+        <v>9.540482658545589</v>
       </c>
       <c r="N7">
-        <v>20.75719167493461</v>
+        <v>13.69465103132712</v>
       </c>
       <c r="O7">
-        <v>25.86377469872667</v>
+        <v>16.12798435448892</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91647557424937</v>
+        <v>12.57181215915088</v>
       </c>
       <c r="C8">
-        <v>11.04409943341611</v>
+        <v>7.868964712234376</v>
       </c>
       <c r="D8">
-        <v>9.614397483666574</v>
+        <v>6.25647780666641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.3714284438545</v>
+        <v>22.06958459077895</v>
       </c>
       <c r="G8">
-        <v>36.17425895037229</v>
+        <v>24.42475464994132</v>
       </c>
       <c r="H8">
-        <v>16.29801137785948</v>
+        <v>9.769297424877879</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.08180624845197</v>
+        <v>6.491731405038675</v>
       </c>
       <c r="K8">
-        <v>8.916578170798186</v>
+        <v>10.14233671543459</v>
       </c>
       <c r="L8">
-        <v>11.35451923965904</v>
+        <v>6.759008445860476</v>
       </c>
       <c r="M8">
-        <v>15.27222025333965</v>
+        <v>9.918196508058994</v>
       </c>
       <c r="N8">
-        <v>20.68567316230503</v>
+        <v>13.46890914774484</v>
       </c>
       <c r="O8">
-        <v>25.76376179441028</v>
+        <v>16.03720455988485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.38974654987722</v>
+        <v>14.36159361196148</v>
       </c>
       <c r="C9">
-        <v>11.01955988397999</v>
+        <v>7.820203078797131</v>
       </c>
       <c r="D9">
-        <v>9.63874279919024</v>
+        <v>6.630857537446682</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.2039397836633</v>
+        <v>22.33669911888141</v>
       </c>
       <c r="G9">
-        <v>35.97219407228545</v>
+        <v>24.79259485084328</v>
       </c>
       <c r="H9">
-        <v>16.20011244703339</v>
+        <v>9.627675208563289</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.03428737196406</v>
+        <v>6.374376764917981</v>
       </c>
       <c r="K9">
-        <v>9.285282767750171</v>
+        <v>11.46107693759011</v>
       </c>
       <c r="L9">
-        <v>11.34439650468154</v>
+        <v>6.959146468464788</v>
       </c>
       <c r="M9">
-        <v>15.34628623807266</v>
+        <v>10.64197822150726</v>
       </c>
       <c r="N9">
-        <v>20.55820018406052</v>
+        <v>13.04718954607445</v>
       </c>
       <c r="O9">
-        <v>25.59986418501351</v>
+        <v>15.94006148581059</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.73593347779361</v>
+        <v>15.64321829348293</v>
       </c>
       <c r="C10">
-        <v>11.0042198700053</v>
+        <v>7.790304782113752</v>
       </c>
       <c r="D10">
-        <v>9.662787748115317</v>
+        <v>6.904126697884425</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.11034653672864</v>
+        <v>22.60831670833877</v>
       </c>
       <c r="G10">
-        <v>35.86256024095117</v>
+        <v>25.17163535513268</v>
       </c>
       <c r="H10">
-        <v>16.13776949500539</v>
+        <v>9.547238861759638</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.0028519480793</v>
+        <v>6.294291780181845</v>
       </c>
       <c r="K10">
-        <v>9.551866078769333</v>
+        <v>12.33938458791178</v>
       </c>
       <c r="L10">
-        <v>11.342624346399</v>
+        <v>7.113460739097254</v>
       </c>
       <c r="M10">
-        <v>15.40907450819791</v>
+        <v>11.15806677461617</v>
       </c>
       <c r="N10">
-        <v>20.47225928020675</v>
+        <v>12.74916645817978</v>
       </c>
       <c r="O10">
-        <v>25.49909787081461</v>
+        <v>15.92275511631132</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.89242672755144</v>
+        <v>16.19898036655164</v>
       </c>
       <c r="C11">
-        <v>10.99782018210172</v>
+        <v>7.778020560492036</v>
       </c>
       <c r="D11">
-        <v>9.67503559879596</v>
+        <v>7.027522852646666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.07416885200053</v>
+        <v>22.74903531977787</v>
       </c>
       <c r="G11">
-        <v>35.82114734319421</v>
+        <v>25.36900674621654</v>
       </c>
       <c r="H11">
-        <v>16.11148218882542</v>
+        <v>9.516184215504511</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.98929975488158</v>
+        <v>6.259176914593429</v>
       </c>
       <c r="K11">
-        <v>9.671697399622021</v>
+        <v>12.71911573892913</v>
       </c>
       <c r="L11">
-        <v>11.34303672529786</v>
+        <v>7.18505782409517</v>
       </c>
       <c r="M11">
-        <v>15.43939227788265</v>
+        <v>11.38847439706547</v>
       </c>
       <c r="N11">
-        <v>20.43482163361909</v>
+        <v>12.61593188375212</v>
       </c>
       <c r="O11">
-        <v>25.45752347306199</v>
+        <v>15.92766044999259</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.95149105902379</v>
+        <v>16.40487594727542</v>
       </c>
       <c r="C12">
-        <v>10.99547957819666</v>
+        <v>7.773560914619152</v>
       </c>
       <c r="D12">
-        <v>9.679859236283498</v>
+        <v>7.074077829843704</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.06138929834735</v>
+        <v>22.80484513584543</v>
       </c>
       <c r="G12">
-        <v>35.80668392144935</v>
+        <v>25.44742392771043</v>
       </c>
       <c r="H12">
-        <v>16.10182543435472</v>
+        <v>9.505256876859367</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.98427496806794</v>
+        <v>6.246068146186274</v>
       </c>
       <c r="K12">
-        <v>9.716827265363218</v>
+        <v>12.86005560269808</v>
       </c>
       <c r="L12">
-        <v>11.34336703550958</v>
+        <v>7.212355304012767</v>
       </c>
       <c r="M12">
-        <v>15.45111934637755</v>
+        <v>11.47502633537551</v>
       </c>
       <c r="N12">
-        <v>20.42088212588336</v>
+        <v>12.56579678863373</v>
       </c>
       <c r="O12">
-        <v>25.44239360628509</v>
+        <v>15.93144155622849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.93878006715594</v>
+        <v>16.36073477627382</v>
       </c>
       <c r="C13">
-        <v>10.99597999172777</v>
+        <v>7.774512788208927</v>
       </c>
       <c r="D13">
-        <v>9.678812167492845</v>
+        <v>7.064059667568498</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.06410068103439</v>
+        <v>22.7927124700314</v>
       </c>
       <c r="G13">
-        <v>35.80974464354011</v>
+        <v>25.43037053884869</v>
       </c>
       <c r="H13">
-        <v>16.10389195609178</v>
+        <v>9.507572657990762</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.98535238758312</v>
+        <v>6.248882983523495</v>
       </c>
       <c r="K13">
-        <v>9.707119384183185</v>
+        <v>12.82982874744713</v>
       </c>
       <c r="L13">
-        <v>11.34328816951551</v>
+        <v>7.206468316880719</v>
       </c>
       <c r="M13">
-        <v>15.44858285205306</v>
+        <v>11.45641793285391</v>
       </c>
       <c r="N13">
-        <v>20.42387370939979</v>
+        <v>12.57658043674224</v>
       </c>
       <c r="O13">
-        <v>25.44562480746517</v>
+        <v>15.93054030199753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.89729022175265</v>
+        <v>16.21601066220915</v>
       </c>
       <c r="C14">
-        <v>10.99762596155169</v>
+        <v>7.777649795736343</v>
       </c>
       <c r="D14">
-        <v>9.675428737717574</v>
+        <v>7.031356637137172</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.07309902957614</v>
+        <v>22.75357596970515</v>
       </c>
       <c r="G14">
-        <v>35.8199329922158</v>
+        <v>25.37538400838211</v>
       </c>
       <c r="H14">
-        <v>16.11068175814034</v>
+        <v>9.515268320569522</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.98888421788777</v>
+        <v>6.258094675369382</v>
       </c>
       <c r="K14">
-        <v>9.675415450795933</v>
+        <v>12.73076820284462</v>
       </c>
       <c r="L14">
-        <v>11.34306041619913</v>
+        <v>7.187299982602593</v>
       </c>
       <c r="M14">
-        <v>15.44035216803207</v>
+        <v>11.39560945211987</v>
       </c>
       <c r="N14">
-        <v>20.43367007144948</v>
+        <v>12.61180097451601</v>
       </c>
       <c r="O14">
-        <v>25.45626643425868</v>
+        <v>15.9279324784679</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.87184936290158</v>
+        <v>16.12677040933645</v>
       </c>
       <c r="C15">
-        <v>10.99864493989396</v>
+        <v>7.779596409118072</v>
       </c>
       <c r="D15">
-        <v>9.673380383143611</v>
+        <v>7.011301471445115</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.07873060720532</v>
+        <v>22.72993381820896</v>
       </c>
       <c r="G15">
-        <v>35.82633242458713</v>
+        <v>25.34218449344437</v>
       </c>
       <c r="H15">
-        <v>16.11487946286039</v>
+        <v>9.520091643402642</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.99106150568774</v>
+        <v>6.263761624731795</v>
       </c>
       <c r="K15">
-        <v>9.65596244745239</v>
+        <v>12.66971872035</v>
       </c>
       <c r="L15">
-        <v>11.34294355761172</v>
+        <v>7.175582476141224</v>
       </c>
       <c r="M15">
-        <v>15.4353425415601</v>
+        <v>11.35826957930217</v>
       </c>
       <c r="N15">
-        <v>20.43970150214954</v>
+        <v>12.63341542202341</v>
       </c>
       <c r="O15">
-        <v>25.46286463316098</v>
+        <v>15.92658817707573</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.72568171092949</v>
+        <v>15.60625767131061</v>
       </c>
       <c r="C16">
-        <v>11.00464971450659</v>
+        <v>7.791134313888884</v>
       </c>
       <c r="D16">
-        <v>9.662013449905839</v>
+        <v>6.896040482155461</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.112839595998</v>
+        <v>22.59947054534922</v>
       </c>
       <c r="G16">
-        <v>35.86543710649733</v>
+        <v>25.15924655916898</v>
       </c>
       <c r="H16">
-        <v>16.13952910917701</v>
+        <v>9.549382820583219</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.00375263038026</v>
+        <v>6.29661303416159</v>
       </c>
       <c r="K16">
-        <v>9.544002340266076</v>
+        <v>12.31416881590189</v>
       </c>
       <c r="L16">
-        <v>11.34262182605432</v>
+        <v>7.108808482646473</v>
       </c>
       <c r="M16">
-        <v>15.40712798045289</v>
+        <v>11.14291503654454</v>
       </c>
       <c r="N16">
-        <v>20.4747391817487</v>
+        <v>12.75791915355845</v>
       </c>
       <c r="O16">
-        <v>25.50190068978728</v>
+        <v>15.9226990193395</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.63572023532034</v>
+        <v>15.2787752206154</v>
       </c>
       <c r="C17">
-        <v>11.00848136378186</v>
+        <v>7.798551603208597</v>
       </c>
       <c r="D17">
-        <v>9.655373778758481</v>
+        <v>6.82506704032851</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.13540324817342</v>
+        <v>22.52387137269011</v>
       </c>
       <c r="G17">
-        <v>35.89159508121774</v>
+        <v>25.05347645165472</v>
       </c>
       <c r="H17">
-        <v>16.15518148764261</v>
+        <v>9.568795235508681</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.01172949052712</v>
+        <v>6.317102822959509</v>
       </c>
       <c r="K17">
-        <v>9.474920332347883</v>
+        <v>12.09096851126546</v>
       </c>
       <c r="L17">
-        <v>11.34273580454645</v>
+        <v>7.068191676988474</v>
       </c>
       <c r="M17">
-        <v>15.39026458950118</v>
+        <v>11.00963129741956</v>
       </c>
       <c r="N17">
-        <v>20.496657422033</v>
+        <v>12.83488419955013</v>
       </c>
       <c r="O17">
-        <v>25.52694048963465</v>
+        <v>15.92364704392515</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.58388681096914</v>
+        <v>15.08740243051548</v>
       </c>
       <c r="C18">
-        <v>11.01073970653884</v>
+        <v>7.802941585463211</v>
       </c>
       <c r="D18">
-        <v>9.651678259200976</v>
+        <v>6.784161072297263</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.14898351616824</v>
+        <v>22.48200080309982</v>
       </c>
       <c r="G18">
-        <v>35.90743665330486</v>
+        <v>24.9949834766261</v>
       </c>
       <c r="H18">
-        <v>16.16437944805825</v>
+        <v>9.58047956472244</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.01638799376321</v>
+        <v>6.329011936611313</v>
       </c>
       <c r="K18">
-        <v>9.435053085945517</v>
+        <v>11.96072444187904</v>
       </c>
       <c r="L18">
-        <v>11.34291612443835</v>
+        <v>7.044962570006898</v>
       </c>
       <c r="M18">
-        <v>15.38073078213495</v>
+        <v>10.93256300664766</v>
       </c>
       <c r="N18">
-        <v>20.50942026637602</v>
+        <v>12.87937362588658</v>
       </c>
       <c r="O18">
-        <v>25.54174412474835</v>
+        <v>15.92538987589072</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.56632313153918</v>
+        <v>15.02208808610625</v>
       </c>
       <c r="C19">
-        <v>11.01151371100412</v>
+        <v>7.80444913068049</v>
       </c>
       <c r="D19">
-        <v>9.650448300892482</v>
+        <v>6.770297899801994</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.15368499318055</v>
+        <v>22.46809924607649</v>
       </c>
       <c r="G19">
-        <v>35.91293701154896</v>
+        <v>24.97557827768562</v>
       </c>
       <c r="H19">
-        <v>16.16752724450114</v>
+        <v>9.58452370908474</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.01797739115896</v>
+        <v>6.333065468580099</v>
       </c>
       <c r="K19">
-        <v>9.421533134148872</v>
+        <v>11.91630600142108</v>
       </c>
       <c r="L19">
-        <v>11.34299692009142</v>
+        <v>7.037120856400849</v>
       </c>
       <c r="M19">
-        <v>15.37753141409849</v>
+        <v>10.90640139863982</v>
       </c>
       <c r="N19">
-        <v>20.5137683789948</v>
+        <v>12.89447550762039</v>
       </c>
       <c r="O19">
-        <v>25.54682531631476</v>
+        <v>15.92618303319352</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.64530649656483</v>
+        <v>15.31394788486437</v>
       </c>
       <c r="C20">
-        <v>11.00806784249858</v>
+        <v>7.797749192428176</v>
       </c>
       <c r="D20">
-        <v>9.656067826153421</v>
+        <v>6.832631276410009</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.13293897683602</v>
+        <v>22.53175177162258</v>
       </c>
       <c r="G20">
-        <v>35.88872809958558</v>
+        <v>25.06449266068755</v>
       </c>
       <c r="H20">
-        <v>16.15349507323096</v>
+        <v>9.566674797532666</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.01087305454393</v>
+        <v>6.314908829848317</v>
       </c>
       <c r="K20">
-        <v>9.482288307012066</v>
+        <v>12.114921669313</v>
       </c>
       <c r="L20">
-        <v>11.3427118014735</v>
+        <v>7.072501797054333</v>
       </c>
       <c r="M20">
-        <v>15.39204263312846</v>
+        <v>11.02386224264132</v>
       </c>
       <c r="N20">
-        <v>20.4943080444014</v>
+        <v>12.82666837814046</v>
       </c>
       <c r="O20">
-        <v>25.52423341480093</v>
+        <v>15.92342156049554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.90948254273349</v>
+        <v>16.25864305662596</v>
       </c>
       <c r="C21">
-        <v>10.99714025563347</v>
+        <v>7.776723143358439</v>
       </c>
       <c r="D21">
-        <v>9.676417516918818</v>
+        <v>7.040967299455104</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.07043102433186</v>
+        <v>22.76500242787522</v>
       </c>
       <c r="G21">
-        <v>35.81690733541044</v>
+        <v>25.39143443315037</v>
       </c>
       <c r="H21">
-        <v>16.10867935289494</v>
+        <v>9.512985029505128</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.9878439294213</v>
+        <v>6.25538386908732</v>
       </c>
       <c r="K21">
-        <v>9.6847347010644</v>
+        <v>12.75994222197281</v>
       </c>
       <c r="L21">
-        <v>11.34312259526509</v>
+        <v>7.192925286111056</v>
       </c>
       <c r="M21">
-        <v>15.44276308145141</v>
+        <v>11.41348985714899</v>
       </c>
       <c r="N21">
-        <v>20.43078620967307</v>
+        <v>12.60144736919028</v>
       </c>
       <c r="O21">
-        <v>25.45312408012134</v>
+        <v>15.92864556670752</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.08096922879327</v>
+        <v>16.84949944252724</v>
       </c>
       <c r="C22">
-        <v>10.99048100417003</v>
+        <v>7.764102660795902</v>
       </c>
       <c r="D22">
-        <v>9.6907979336219</v>
+        <v>7.176105111223039</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.03494168706306</v>
+        <v>22.9321715539093</v>
       </c>
       <c r="G22">
-        <v>35.77707281420899</v>
+        <v>25.62657560597191</v>
       </c>
       <c r="H22">
-        <v>16.08112460448516</v>
+        <v>9.482765510955796</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.97341733660683</v>
+        <v>6.21757910586</v>
       </c>
       <c r="K22">
-        <v>9.81558408335294</v>
+        <v>13.16485406274345</v>
       </c>
       <c r="L22">
-        <v>11.34440562522727</v>
+        <v>7.272701391263146</v>
       </c>
       <c r="M22">
-        <v>15.47734501966581</v>
+        <v>11.66403583741657</v>
       </c>
       <c r="N22">
-        <v>20.39065382390213</v>
+        <v>12.45609657991301</v>
       </c>
       <c r="O22">
-        <v>25.4102257723413</v>
+        <v>15.94331189143813</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.98956773669434</v>
+        <v>16.53656453531243</v>
       </c>
       <c r="C23">
-        <v>10.99399114228723</v>
+        <v>7.77073488784156</v>
       </c>
       <c r="D23">
-        <v>9.683024873965817</v>
+        <v>7.104085632221711</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.05339230975773</v>
+        <v>22.84158587561884</v>
       </c>
       <c r="G23">
-        <v>35.79768256635489</v>
+        <v>25.4990853555942</v>
       </c>
       <c r="H23">
-        <v>16.09567247556799</v>
+        <v>9.498436202021097</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.98106009678338</v>
+        <v>6.23765596973399</v>
       </c>
       <c r="K23">
-        <v>9.745893951242014</v>
+        <v>12.95026879257243</v>
       </c>
       <c r="L23">
-        <v>11.34362838436593</v>
+        <v>7.230030455025585</v>
       </c>
       <c r="M23">
-        <v>15.45875888918865</v>
+        <v>11.53071106430771</v>
       </c>
       <c r="N23">
-        <v>20.41194703476923</v>
+        <v>12.53351053281267</v>
       </c>
       <c r="O23">
-        <v>25.43279416927137</v>
+        <v>15.93442610531133</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.64097289685179</v>
+        <v>15.29805597839497</v>
       </c>
       <c r="C24">
-        <v>11.00825462264389</v>
+        <v>7.798111571073991</v>
       </c>
       <c r="D24">
-        <v>9.655753668003353</v>
+        <v>6.829211801065346</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.13405117967102</v>
+        <v>22.52818408754587</v>
       </c>
       <c r="G24">
-        <v>35.89002176086933</v>
+        <v>25.05950502674264</v>
       </c>
       <c r="H24">
-        <v>16.15425688066505</v>
+        <v>9.567631818518226</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.01126002339133</v>
+        <v>6.315900331452657</v>
       </c>
       <c r="K24">
-        <v>9.47895771312313</v>
+        <v>12.10409843645532</v>
       </c>
       <c r="L24">
-        <v>11.34272229562191</v>
+        <v>7.070552810447979</v>
       </c>
       <c r="M24">
-        <v>15.3912382770956</v>
+        <v>11.01742980261097</v>
       </c>
       <c r="N24">
-        <v>20.49536969409144</v>
+        <v>12.83038199836105</v>
       </c>
       <c r="O24">
-        <v>25.52545601270922</v>
+        <v>15.92351977719165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.26175138733153</v>
+        <v>13.89803809943816</v>
       </c>
       <c r="C25">
-        <v>11.02572451079296</v>
+        <v>7.832363308635603</v>
       </c>
       <c r="D25">
-        <v>9.631066130911449</v>
+        <v>6.529700990348404</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.24407783131967</v>
+        <v>22.25148573477179</v>
       </c>
       <c r="G25">
-        <v>36.02005207212563</v>
+        <v>24.67446061576989</v>
       </c>
       <c r="H25">
-        <v>16.2249114244973</v>
+        <v>9.661974318790319</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.04652979820712</v>
+        <v>6.405041815253237</v>
       </c>
       <c r="K25">
-        <v>9.186115722159521</v>
+        <v>11.12014351455659</v>
       </c>
       <c r="L25">
-        <v>11.34613633139779</v>
+        <v>6.903664579984128</v>
       </c>
       <c r="M25">
-        <v>15.32475811942852</v>
+        <v>10.44857145347314</v>
       </c>
       <c r="N25">
-        <v>20.59132510775131</v>
+        <v>13.15912908164211</v>
       </c>
       <c r="O25">
-        <v>25.64075229695733</v>
+        <v>15.95719519309181</v>
       </c>
     </row>
   </sheetData>
